--- a/laya/csv/Monster.xlsx
+++ b/laya/csv/Monster.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoduo/Desktop/9-Design/csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\layabox\work\TowerDefense\laya\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218FC1C6-4BB1-4ECB-A1E6-D6353421D0A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="3860" windowWidth="27040" windowHeight="18340" tabRatio="500"/>
+    <workbookView xWindow="9075" yWindow="3855" windowWidth="27045" windowHeight="18345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="653">
   <si>
     <t>id</t>
   </si>
@@ -2079,14 +2080,18 @@
   </si>
   <si>
     <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2593,34 +2598,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="3"/>
-    <col min="4" max="4" width="18.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="3"/>
+    <col min="4" max="4" width="18.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="3"/>
+    <col min="6" max="7" width="10.875" style="1"/>
+    <col min="8" max="8" width="18.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="20.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.125" style="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="10.83203125" style="1"/>
-    <col min="17" max="17" width="13.83203125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="8.625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.875" style="1"/>
+    <col min="17" max="17" width="13.875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2679,7 +2684,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" s="10" t="s">
         <v>221</v>
       </c>
@@ -2738,7 +2743,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -2797,7 +2802,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="10" t="s">
         <v>233</v>
       </c>
@@ -2856,7 +2861,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="10" t="s">
         <v>242</v>
       </c>
@@ -2915,7 +2920,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="10" t="s">
         <v>581</v>
       </c>
@@ -2974,7 +2979,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" s="10" t="s">
         <v>256</v>
       </c>
@@ -3033,7 +3038,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="10" t="s">
         <v>263</v>
       </c>
@@ -3092,7 +3097,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="10" t="s">
         <v>268</v>
       </c>
@@ -3151,7 +3156,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="10" t="s">
         <v>275</v>
       </c>
@@ -3210,7 +3215,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" s="10" t="s">
         <v>281</v>
       </c>
@@ -3269,7 +3274,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" s="10" t="s">
         <v>582</v>
       </c>
@@ -3328,7 +3333,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" s="10" t="s">
         <v>292</v>
       </c>
@@ -3387,7 +3392,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" s="10" t="s">
         <v>297</v>
       </c>
@@ -3446,7 +3451,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" s="10" t="s">
         <v>302</v>
       </c>
@@ -3505,7 +3510,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" s="10" t="s">
         <v>307</v>
       </c>
@@ -3564,7 +3569,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19">
       <c r="A17" s="10" t="s">
         <v>312</v>
       </c>
@@ -3623,7 +3628,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19">
       <c r="A18" s="10" t="s">
         <v>317</v>
       </c>
@@ -3682,7 +3687,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19">
       <c r="A19" s="10" t="s">
         <v>323</v>
       </c>
@@ -3741,7 +3746,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19">
       <c r="A20" s="10" t="s">
         <v>328</v>
       </c>
@@ -3800,7 +3805,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19">
       <c r="A21" s="10" t="s">
         <v>583</v>
       </c>
@@ -3859,7 +3864,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19">
       <c r="A22" s="10" t="s">
         <v>339</v>
       </c>
@@ -3918,7 +3923,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19">
       <c r="A23" s="10" t="s">
         <v>345</v>
       </c>
@@ -3977,7 +3982,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19">
       <c r="A24" s="10" t="s">
         <v>351</v>
       </c>
@@ -4036,7 +4041,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19">
       <c r="A25" s="10" t="s">
         <v>358</v>
       </c>
@@ -4095,7 +4100,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19">
       <c r="A26" s="10" t="s">
         <v>364</v>
       </c>
@@ -4154,7 +4159,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19">
       <c r="A27" s="10" t="s">
         <v>370</v>
       </c>
@@ -4213,7 +4218,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19">
       <c r="A28" s="10" t="s">
         <v>376</v>
       </c>
@@ -4233,7 +4238,7 @@
         <v>251</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>252</v>
+        <v>652</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>378</v>
@@ -4272,7 +4277,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19">
       <c r="A29" s="10" t="s">
         <v>381</v>
       </c>
@@ -4331,7 +4336,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19">
       <c r="A30" s="10" t="s">
         <v>387</v>
       </c>
@@ -4390,7 +4395,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19">
       <c r="A31" s="10" t="s">
         <v>393</v>
       </c>
@@ -4449,7 +4454,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19">
       <c r="A32" s="10" t="s">
         <v>398</v>
       </c>
@@ -4508,7 +4513,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19">
       <c r="A33" s="10" t="s">
         <v>403</v>
       </c>
@@ -4567,7 +4572,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19">
       <c r="A34" s="10" t="s">
         <v>408</v>
       </c>
@@ -4626,7 +4631,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19">
       <c r="A35" s="10" t="s">
         <v>411</v>
       </c>
@@ -4685,7 +4690,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19">
       <c r="A36" s="10" t="s">
         <v>413</v>
       </c>
@@ -4744,7 +4749,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19">
       <c r="A37" s="10" t="s">
         <v>415</v>
       </c>
@@ -4803,7 +4808,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19">
       <c r="A38" s="10" t="s">
         <v>417</v>
       </c>
@@ -4862,7 +4867,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19">
       <c r="A39" s="10" t="s">
         <v>419</v>
       </c>
@@ -4921,7 +4926,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19">
       <c r="A40" s="10" t="s">
         <v>421</v>
       </c>
@@ -4980,7 +4985,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19">
       <c r="A41" s="10" t="s">
         <v>423</v>
       </c>
@@ -5039,7 +5044,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19">
       <c r="A42" s="10" t="s">
         <v>425</v>
       </c>
@@ -5098,7 +5103,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19">
       <c r="A43" s="10" t="s">
         <v>427</v>
       </c>
@@ -5157,7 +5162,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19">
       <c r="A44" s="10" t="s">
         <v>429</v>
       </c>
@@ -5216,7 +5221,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19">
       <c r="A45" s="10" t="s">
         <v>431</v>
       </c>
@@ -5275,7 +5280,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19">
       <c r="A46" s="10" t="s">
         <v>434</v>
       </c>
@@ -5334,7 +5339,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19">
       <c r="A47" s="10" t="s">
         <v>437</v>
       </c>
@@ -5393,7 +5398,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19">
       <c r="A48" s="10" t="s">
         <v>441</v>
       </c>
@@ -5452,7 +5457,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19">
       <c r="A49" s="10" t="s">
         <v>444</v>
       </c>
@@ -5511,7 +5516,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19">
       <c r="A50" s="10" t="s">
         <v>447</v>
       </c>
@@ -5570,7 +5575,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19">
       <c r="A51" s="10" t="s">
         <v>450</v>
       </c>
@@ -5629,7 +5634,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19">
       <c r="A52" s="10" t="s">
         <v>453</v>
       </c>
@@ -5688,7 +5693,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19">
       <c r="A53" s="10" t="s">
         <v>457</v>
       </c>
@@ -5747,7 +5752,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19">
       <c r="A54" s="10" t="s">
         <v>461</v>
       </c>
@@ -5806,7 +5811,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19">
       <c r="A55" s="10" t="s">
         <v>465</v>
       </c>
@@ -5865,7 +5870,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19">
       <c r="A56" s="10" t="s">
         <v>469</v>
       </c>
@@ -5924,7 +5929,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19">
       <c r="A57" s="10" t="s">
         <v>473</v>
       </c>
@@ -5983,7 +5988,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19">
       <c r="A58" s="10" t="s">
         <v>476</v>
       </c>
@@ -6042,7 +6047,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19">
       <c r="A59" s="10" t="s">
         <v>479</v>
       </c>
@@ -6101,7 +6106,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19">
       <c r="A60" s="10" t="s">
         <v>482</v>
       </c>
@@ -6160,7 +6165,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19">
       <c r="A61" s="10" t="s">
         <v>485</v>
       </c>
@@ -6219,7 +6224,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19">
       <c r="A62" s="10" t="s">
         <v>488</v>
       </c>
@@ -6278,7 +6283,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19">
       <c r="A63" s="10" t="s">
         <v>392</v>
       </c>
@@ -6337,7 +6342,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19">
       <c r="A64" s="10" t="s">
         <v>494</v>
       </c>
@@ -6396,7 +6401,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19">
       <c r="A65" s="10" t="s">
         <v>495</v>
       </c>
@@ -6455,7 +6460,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19">
       <c r="A66" s="10" t="s">
         <v>496</v>
       </c>
@@ -6514,7 +6519,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19">
       <c r="A67" s="10" t="s">
         <v>497</v>
       </c>
@@ -6573,7 +6578,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19">
       <c r="A68" s="10" t="s">
         <v>498</v>
       </c>
@@ -6632,7 +6637,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19">
       <c r="A69" s="10" t="s">
         <v>499</v>
       </c>
@@ -6691,7 +6696,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19">
       <c r="A70" s="10" t="s">
         <v>500</v>
       </c>
@@ -6750,7 +6755,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19">
       <c r="A71" s="10" t="s">
         <v>501</v>
       </c>
@@ -6809,7 +6814,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19">
       <c r="A72" s="10" t="s">
         <v>503</v>
       </c>
@@ -6868,7 +6873,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19">
       <c r="A73" s="10" t="s">
         <v>504</v>
       </c>
@@ -6927,7 +6932,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19">
       <c r="A74" s="10" t="s">
         <v>505</v>
       </c>
@@ -6986,7 +6991,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19">
       <c r="A75" s="10" t="s">
         <v>506</v>
       </c>
@@ -7045,7 +7050,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19">
       <c r="A76" s="10" t="s">
         <v>507</v>
       </c>
@@ -7104,7 +7109,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19">
       <c r="A77" s="10" t="s">
         <v>508</v>
       </c>
@@ -7163,7 +7168,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19">
       <c r="A78" s="10" t="s">
         <v>509</v>
       </c>
@@ -7222,7 +7227,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19">
       <c r="A79" s="10" t="s">
         <v>510</v>
       </c>
@@ -7281,7 +7286,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19">
       <c r="A80" s="10" t="s">
         <v>511</v>
       </c>
@@ -7340,7 +7345,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19">
       <c r="A81" s="10" t="s">
         <v>512</v>
       </c>
@@ -7399,7 +7404,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19">
       <c r="A82" s="10" t="s">
         <v>513</v>
       </c>
@@ -7458,7 +7463,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19">
       <c r="A83" s="10" t="s">
         <v>514</v>
       </c>
@@ -7517,7 +7522,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19">
       <c r="A84" s="10" t="s">
         <v>515</v>
       </c>
@@ -7576,7 +7581,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19">
       <c r="A85" s="10" t="s">
         <v>516</v>
       </c>
@@ -7635,7 +7640,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19">
       <c r="A86" s="10" t="s">
         <v>517</v>
       </c>
@@ -7694,7 +7699,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19">
       <c r="A87" s="10" t="s">
         <v>518</v>
       </c>
@@ -7753,7 +7758,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19">
       <c r="A88" s="10" t="s">
         <v>519</v>
       </c>
@@ -7812,7 +7817,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19">
       <c r="A89" s="10" t="s">
         <v>520</v>
       </c>
@@ -7871,7 +7876,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19">
       <c r="A90" s="10" t="s">
         <v>634</v>
       </c>
@@ -7930,7 +7935,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19">
       <c r="A91" s="10" t="s">
         <v>521</v>
       </c>
@@ -7989,7 +7994,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19">
       <c r="A92" s="10" t="s">
         <v>522</v>
       </c>
@@ -8048,7 +8053,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19">
       <c r="A93" s="10" t="s">
         <v>523</v>
       </c>
@@ -8107,7 +8112,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19">
       <c r="A94" s="10" t="s">
         <v>524</v>
       </c>
@@ -8166,7 +8171,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19">
       <c r="A95" s="10" t="s">
         <v>525</v>
       </c>
@@ -8225,7 +8230,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19">
       <c r="A96" s="10" t="s">
         <v>526</v>
       </c>
@@ -8284,7 +8289,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19">
       <c r="A97" s="10" t="s">
         <v>527</v>
       </c>
@@ -8343,7 +8348,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19">
       <c r="A98" s="10" t="s">
         <v>529</v>
       </c>
@@ -8402,7 +8407,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19">
       <c r="A99" s="19" t="s">
         <v>530</v>
       </c>
@@ -8461,7 +8466,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19">
       <c r="A100" s="19" t="s">
         <v>533</v>
       </c>
@@ -8520,7 +8525,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19">
       <c r="A101" s="19" t="s">
         <v>535</v>
       </c>
@@ -8579,7 +8584,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19">
       <c r="A102" s="19" t="s">
         <v>537</v>
       </c>
@@ -8638,7 +8643,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19">
       <c r="A103" s="19" t="s">
         <v>539</v>
       </c>
@@ -8697,7 +8702,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19">
       <c r="A104" s="19" t="s">
         <v>541</v>
       </c>
@@ -8756,7 +8761,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19">
       <c r="A105" s="21" t="s">
         <v>543</v>
       </c>
@@ -8815,7 +8820,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19">
       <c r="A106" s="21" t="s">
         <v>548</v>
       </c>

--- a/laya/csv/Monster.xlsx
+++ b/laya/csv/Monster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\layabox\work\TowerDefense\laya\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218FC1C6-4BB1-4ECB-A1E6-D6353421D0A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D87118-5250-4011-8A61-D3982F116BFC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9075" yWindow="3855" windowWidth="27045" windowHeight="18345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="654">
   <si>
     <t>id</t>
   </si>
@@ -1677,413 +1677,418 @@
     <t>100003</t>
   </si>
   <si>
+    <t>sw2_</t>
+  </si>
+  <si>
+    <t>pivotX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pivotY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锚点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>197</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>194</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>186</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g3_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g2_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster/g3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_d25_16.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>178</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>238</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>237</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>guard/treeking2</t>
-  </si>
-  <si>
-    <t>sw2_</t>
-  </si>
-  <si>
-    <t>pivotX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pivotY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锚点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>189</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>191</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>117</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>185</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>197</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>126</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>194</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>186</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>193</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g3_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g2_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster/g3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_d25_16.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>228</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>145</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>227</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>133</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>223</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>136</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>224</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>163</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>233</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>231</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>134</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>178</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>181</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>226</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>126</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>229</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>238</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>235</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>237</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>248</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>316</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>241</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>336</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2601,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -2678,10 +2683,10 @@
         <v>220</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -2737,10 +2742,10 @@
         <v>222</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2796,10 +2801,10 @@
         <v>232</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2855,10 +2860,10 @@
         <v>241</v>
       </c>
       <c r="R4" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2911,18 +2916,18 @@
         <v>115</v>
       </c>
       <c r="Q5" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R5" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>234</v>
@@ -2970,13 +2975,13 @@
         <v>115</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3029,13 +3034,13 @@
         <v>115</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3088,13 +3093,13 @@
         <v>115</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R8" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -3147,13 +3152,13 @@
         <v>115</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -3206,13 +3211,13 @@
         <v>115</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R10" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -3265,18 +3270,18 @@
         <v>115</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>234</v>
@@ -3324,13 +3329,13 @@
         <v>115</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -3383,13 +3388,13 @@
         <v>115</v>
       </c>
       <c r="Q13" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -3442,13 +3447,13 @@
         <v>115</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -3501,13 +3506,13 @@
         <v>115</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -3560,13 +3565,13 @@
         <v>115</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -3619,13 +3624,13 @@
         <v>115</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R17" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -3678,13 +3683,13 @@
         <v>115</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -3737,13 +3742,13 @@
         <v>115</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R19" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -3796,18 +3801,18 @@
         <v>115</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="R20" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="S20" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>234</v>
@@ -3855,13 +3860,13 @@
         <v>115</v>
       </c>
       <c r="Q21" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -3914,13 +3919,13 @@
         <v>115</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -3973,13 +3978,13 @@
         <v>115</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -4032,13 +4037,13 @@
         <v>115</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -4091,13 +4096,13 @@
         <v>115</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -4150,13 +4155,13 @@
         <v>115</v>
       </c>
       <c r="Q26" s="16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -4209,13 +4214,13 @@
         <v>115</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -4238,7 +4243,7 @@
         <v>251</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>378</v>
@@ -4250,7 +4255,7 @@
         <v>115</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L28" s="18" t="s">
         <v>379</v>
@@ -4268,13 +4273,13 @@
         <v>115</v>
       </c>
       <c r="Q28" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -4327,13 +4332,13 @@
         <v>115</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -4386,13 +4391,13 @@
         <v>115</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="R30" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -4445,13 +4450,13 @@
         <v>115</v>
       </c>
       <c r="Q31" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -4504,13 +4509,13 @@
         <v>115</v>
       </c>
       <c r="Q32" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -4563,13 +4568,13 @@
         <v>115</v>
       </c>
       <c r="Q33" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -4625,10 +4630,10 @@
         <v>241</v>
       </c>
       <c r="R34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="S34" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -4681,13 +4686,13 @@
         <v>115</v>
       </c>
       <c r="Q35" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R35" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="S35" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -4740,13 +4745,13 @@
         <v>115</v>
       </c>
       <c r="Q36" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -4799,13 +4804,13 @@
         <v>115</v>
       </c>
       <c r="Q37" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -4858,13 +4863,13 @@
         <v>115</v>
       </c>
       <c r="Q38" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R38" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="S38" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -4917,13 +4922,13 @@
         <v>115</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -4976,13 +4981,13 @@
         <v>115</v>
       </c>
       <c r="Q40" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R40" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="S40" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -5035,13 +5040,13 @@
         <v>115</v>
       </c>
       <c r="Q41" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -5094,13 +5099,13 @@
         <v>115</v>
       </c>
       <c r="Q42" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -5153,13 +5158,13 @@
         <v>115</v>
       </c>
       <c r="Q43" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -5212,13 +5217,13 @@
         <v>115</v>
       </c>
       <c r="Q44" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -5271,13 +5276,13 @@
         <v>115</v>
       </c>
       <c r="Q45" s="16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -5330,13 +5335,13 @@
         <v>115</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -5389,13 +5394,13 @@
         <v>115</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R47" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="S47" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -5448,13 +5453,13 @@
         <v>115</v>
       </c>
       <c r="Q48" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -5507,13 +5512,13 @@
         <v>115</v>
       </c>
       <c r="Q49" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R49" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="S49" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -5566,13 +5571,13 @@
         <v>115</v>
       </c>
       <c r="Q50" s="16" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="R50" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="S50" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -5625,13 +5630,13 @@
         <v>115</v>
       </c>
       <c r="Q51" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -5684,13 +5689,13 @@
         <v>115</v>
       </c>
       <c r="Q52" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -5743,13 +5748,13 @@
         <v>115</v>
       </c>
       <c r="Q53" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -5802,13 +5807,13 @@
         <v>115</v>
       </c>
       <c r="Q54" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -5861,13 +5866,13 @@
         <v>115</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -5920,13 +5925,13 @@
         <v>115</v>
       </c>
       <c r="Q56" s="16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -5979,13 +5984,13 @@
         <v>115</v>
       </c>
       <c r="Q57" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -6020,7 +6025,7 @@
         <v>115</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L58" s="18" t="s">
         <v>478</v>
@@ -6038,13 +6043,13 @@
         <v>115</v>
       </c>
       <c r="Q58" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -6097,13 +6102,13 @@
         <v>115</v>
       </c>
       <c r="Q59" s="16" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -6156,13 +6161,13 @@
         <v>115</v>
       </c>
       <c r="Q60" s="16" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="R60" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="S60" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -6215,13 +6220,13 @@
         <v>115</v>
       </c>
       <c r="Q61" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -6274,13 +6279,13 @@
         <v>115</v>
       </c>
       <c r="Q62" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -6333,13 +6338,13 @@
         <v>115</v>
       </c>
       <c r="Q63" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -6359,10 +6364,10 @@
         <v>38</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>115</v>
@@ -6395,10 +6400,10 @@
         <v>115</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -6415,13 +6420,13 @@
         <v>169</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H65" s="12" t="s">
         <v>115</v>
@@ -6454,10 +6459,10 @@
         <v>115</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -6471,16 +6476,16 @@
         <v>40</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>115</v>
@@ -6516,7 +6521,7 @@
         <v>370</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -6572,10 +6577,10 @@
         <v>115</v>
       </c>
       <c r="R67" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="S67" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -6598,7 +6603,7 @@
         <v>249</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>115</v>
@@ -6631,10 +6636,10 @@
         <v>115</v>
       </c>
       <c r="R68" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="S68" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -6690,10 +6695,10 @@
         <v>115</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -6749,10 +6754,10 @@
         <v>115</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -6808,10 +6813,10 @@
         <v>115</v>
       </c>
       <c r="R71" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="S71" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="S71" s="1" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -6867,10 +6872,10 @@
         <v>115</v>
       </c>
       <c r="R72" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="S72" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -6926,10 +6931,10 @@
         <v>115</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -6985,10 +6990,10 @@
         <v>115</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -7044,10 +7049,10 @@
         <v>115</v>
       </c>
       <c r="R75" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="S75" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="S75" s="1" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -7103,10 +7108,10 @@
         <v>115</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -7162,10 +7167,10 @@
         <v>115</v>
       </c>
       <c r="R77" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="S77" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="S77" s="1" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -7221,10 +7226,10 @@
         <v>115</v>
       </c>
       <c r="R78" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="S78" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="S78" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -7280,10 +7285,10 @@
         <v>115</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -7339,10 +7344,10 @@
         <v>115</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -7398,10 +7403,10 @@
         <v>115</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -7457,10 +7462,10 @@
         <v>115</v>
       </c>
       <c r="R82" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="S82" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="S82" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -7516,10 +7521,10 @@
         <v>115</v>
       </c>
       <c r="R83" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="S83" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="S83" s="1" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -7575,10 +7580,10 @@
         <v>115</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -7634,10 +7639,10 @@
         <v>115</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -7693,10 +7698,10 @@
         <v>115</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -7752,10 +7757,10 @@
         <v>115</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -7811,10 +7816,10 @@
         <v>115</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -7870,15 +7875,15 @@
         <v>115</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>203</v>
@@ -7929,10 +7934,10 @@
         <v>115</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -7988,10 +7993,10 @@
         <v>115</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -8047,10 +8052,10 @@
         <v>115</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -8106,10 +8111,10 @@
         <v>115</v>
       </c>
       <c r="R93" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="S93" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="S93" s="1" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -8165,10 +8170,10 @@
         <v>115</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -8224,10 +8229,10 @@
         <v>115</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -8283,10 +8288,10 @@
         <v>115</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -8342,10 +8347,10 @@
         <v>115</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -8401,10 +8406,10 @@
         <v>115</v>
       </c>
       <c r="R98" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="S98" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="S98" s="1" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -8460,10 +8465,10 @@
         <v>115</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -8519,10 +8524,10 @@
         <v>115</v>
       </c>
       <c r="R100" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="S100" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="S100" s="1" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -8578,10 +8583,10 @@
         <v>115</v>
       </c>
       <c r="R101" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="S101" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="S101" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -8637,10 +8642,10 @@
         <v>115</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -8696,10 +8701,10 @@
         <v>115</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -8755,10 +8760,10 @@
         <v>115</v>
       </c>
       <c r="R104" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="S104" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="S104" s="1" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -8778,11 +8783,11 @@
         <v>546</v>
       </c>
       <c r="F105" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="G105" s="11" t="s">
         <v>650</v>
       </c>
-      <c r="G105" s="11" t="s">
-        <v>651</v>
-      </c>
       <c r="H105" s="12" t="s">
         <v>115</v>
       </c>
@@ -8790,7 +8795,7 @@
         <v>115</v>
       </c>
       <c r="J105" s="16" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K105" s="16" t="s">
         <v>115</v>
@@ -8831,13 +8836,13 @@
         <v>544</v>
       </c>
       <c r="D106" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="E106" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="E106" s="13" t="s">
-        <v>550</v>
-      </c>
       <c r="F106" s="13" t="s">
-        <v>258</v>
+        <v>653</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>258</v>
@@ -8849,7 +8854,7 @@
         <v>115</v>
       </c>
       <c r="J106" s="16" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K106" s="16" t="s">
         <v>115</v>
